--- a/7RMartsupermarket/src/test/resources/Testdata.xlsx
+++ b/7RMartsupermarket/src/test/resources/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaj\OneDrive\Desktop\Automation Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB43EB-B3EB-4169-995D-2DEA76E2CB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F39CE-5030-4568-8809-5869BE3E0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="168" windowWidth="23016" windowHeight="12216" firstSheet="1" activeTab="5" xr2:uid="{58C891FE-83E0-4FFF-ABF1-D6F6AFBCE227}"/>
+    <workbookView xWindow="0" yWindow="168" windowWidth="23016" windowHeight="12216" firstSheet="1" activeTab="3" xr2:uid="{58C891FE-83E0-4FFF-ABF1-D6F6AFBCE227}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -68,12 +68,6 @@
     <t>mango</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -102,6 +96,15 @@
   </si>
   <si>
     <t>smart phone super</t>
+  </si>
+  <si>
+    <t>Enter News Informations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Create News</t>
   </si>
 </sst>
 </file>
@@ -573,25 +576,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -603,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF07445F-4426-4079-A524-9334C4249813}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,21 +622,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>12345788</v>
@@ -662,19 +668,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,10 +688,10 @@
         <v>12345788</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -706,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D9C070-0F28-4464-BE1A-53624DC11E45}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -714,18 +720,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
